--- a/5-superficie/evaluaciones/PerezMarina-20181128.xlsx
+++ b/5-superficie/evaluaciones/PerezMarina-20181128.xlsx
@@ -937,7 +937,7 @@
   <dimension ref="B1:K40"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A25" zoomScale="180" zoomScaleNormal="180" zoomScalePageLayoutView="180" workbookViewId="0">
-      <selection activeCell="F29" sqref="F29"/>
+      <selection activeCell="E27" sqref="E27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12" x14ac:dyDescent="0.15"/>
@@ -1330,7 +1330,7 @@
       </c>
       <c r="E25" s="33">
         <f t="shared" ref="E25:G25" si="2">E26*0.38+E27/3*0.32+E28/3*0.17+E29*0.13</f>
-        <v>0.89333333333333331</v>
+        <v>1</v>
       </c>
       <c r="F25" s="33">
         <f t="shared" si="2"/>
@@ -1370,7 +1370,7 @@
         <v>2</v>
       </c>
       <c r="E27" s="4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F27" s="4">
         <v>2</v>
